--- a/statistiche/RandomForestCounterfactuals/G.xlsx
+++ b/statistiche/RandomForestCounterfactuals/G.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,38 +755,38 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,22 +889,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,28 +1023,28 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>1</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1</v>
@@ -1190,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>1</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
@@ -1330,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1367,13 +1367,13 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1403,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1464,22 +1464,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
@@ -1598,22 +1598,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1662,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1805,13 +1805,13 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1839,13 +1839,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1863,25 +1863,25 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
@@ -1903,13 +1903,13 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1918,34 +1918,34 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
